--- a/src/main/webapp/excel/12.xlsx
+++ b/src/main/webapp/excel/12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1965" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>用户信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,39 +109,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>选择题内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断题内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填空    题    内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问答题内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择题内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断题内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填空    题    内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问答题内容</t>
+    <t>个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断题答案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -153,27 +173,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断题答案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问答题答案</t>
+    <t>填空题答案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +536,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -569,10 +569,10 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
         <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -580,22 +580,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -630,10 +630,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -657,13 +657,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -671,16 +671,16 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
       </c>
       <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
         <v>2</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -701,10 +701,10 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -712,10 +712,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19">
         <v>10</v>
